--- a/Documentation/Cahier des charges/Devis professionnel.xlsx
+++ b/Documentation/Cahier des charges/Devis professionnel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBCEA0A-1912-4B48-B60B-F0D7B51AD3D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0A640E-5C0F-4EAD-8221-B174BAD7FE65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -856,12 +856,6 @@
     <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -870,9 +864,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -895,6 +886,15 @@
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -1947,8 +1947,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="A1:F27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.765625" defaultRowHeight="26.15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2043,13 +2043,13 @@
       </c>
     </row>
     <row r="11" spans="2:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
     </row>
     <row r="12" spans="2:6" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
@@ -2108,8 +2108,7 @@
     </row>
     <row r="15" spans="2:6" s="4" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="23">
-        <f>21*4-B13-B14-B16-B17-B18</f>
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>25</v>
@@ -2119,11 +2118,11 @@
       </c>
       <c r="E15" s="19">
         <f>IFERROR(IF(OR(Tableau_Articles[[#This Row],[Nbre Jours]]="",Tableau_Articles[[#This Row],[Prix unitaire HT]]=""),"",Tableau_Articles[[#This Row],[Nbre Jours]]*Tableau_Articles[[#This Row],[Prix unitaire HT]]),"")</f>
-        <v>40120</v>
+        <v>18880</v>
       </c>
       <c r="F15" s="19">
         <f>IFERROR(IF(OR(Tableau_Articles[[#This Row],[Nbre Jours]]="",Tableau_Articles[[#This Row],[Prix unitaire HT]]=""),"",Tableau_Articles[[#This Row],[Nbre Jours]]*Tableau_Articles[[#This Row],[Prix unitaire HT]]),"")</f>
-        <v>40120</v>
+        <v>18880</v>
       </c>
     </row>
     <row r="16" spans="2:6" s="4" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -2208,25 +2207,25 @@
       </c>
     </row>
     <row r="21" spans="2:6" s="3" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="45"/>
     </row>
     <row r="22" spans="2:6" s="3" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="20">
         <f>SUM(Tableau_Articles[Montant])</f>
-        <v>55010</v>
+        <v>33770</v>
       </c>
     </row>
     <row r="23" spans="2:6" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="10" t="s">
         <v>8</v>
       </c>
@@ -2244,28 +2243,28 @@
       </c>
       <c r="F24" s="21">
         <f>F22*Taux_TVA</f>
-        <v>11002</v>
+        <v>6754</v>
       </c>
     </row>
     <row r="25" spans="2:6" s="3" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="2:6" s="3" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="22">
         <f>SUM(F22,F24,F25)</f>
-        <v>66012</v>
+        <v>40524</v>
       </c>
     </row>
     <row r="27" spans="2:6" s="3" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2317,20 +2316,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57ADF28B-4FA0-45C4-84A7-9539B5C4EBB7}">
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.765625" defaultRowHeight="26.15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.765625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="14.07421875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="31.07421875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="24.53515625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="24.3046875" style="35" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.07421875" style="35" customWidth="1"/>
-    <col min="7" max="7" width="1.765625" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="8.765625" style="35"/>
+    <col min="1" max="1" width="1.765625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="14.07421875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="31.07421875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="24.53515625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="24.3046875" style="33" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.07421875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="1.765625" style="33" customWidth="1"/>
+    <col min="8" max="16384" width="8.765625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="114" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2341,11 +2340,11 @@
       <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="34">
         <v>43748</v>
       </c>
     </row>
-    <row r="3" spans="2:6" s="37" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" s="35" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="17" t="s">
         <v>29</v>
       </c>
@@ -2356,7 +2355,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="4" spans="2:6" s="37" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" s="35" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="17" t="s">
         <v>36</v>
       </c>
@@ -2380,7 +2379,7 @@
       <c r="D6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="34">
         <f>F2+30</f>
         <v>43778</v>
       </c>
@@ -2412,14 +2411,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:6" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="38" t="s">
+    <row r="11" spans="2:6" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="2:6" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
@@ -2438,8 +2437,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:6" s="42" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="40">
+    <row r="13" spans="2:6" s="39" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="37">
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -2448,42 +2447,42 @@
       <c r="D13" s="30">
         <v>1650</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="38">
         <f>IFERROR(IF(OR(Tableau_Articles2[[#This Row],[Nbre Jours]]="",Tableau_Articles2[[#This Row],[Prix unitaire HT]]=""),"",Tableau_Articles2[[#This Row],[Nbre Jours]]*Tableau_Articles2[[#This Row],[Prix unitaire HT]]),"")</f>
         <v>19800</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="38">
         <f>IFERROR(IF(OR(Tableau_Articles2[[#This Row],[Nbre Jours]]="",Tableau_Articles2[[#This Row],[Prix unitaire HT]]=""),"",Tableau_Articles2[[#This Row],[Nbre Jours]]*Tableau_Articles2[[#This Row],[Prix unitaire HT]]),"")</f>
         <v>19800</v>
       </c>
     </row>
-    <row r="14" spans="2:6" s="42" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="40"/>
+    <row r="14" spans="2:6" s="39" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="37"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-    </row>
-    <row r="15" spans="2:6" s="42" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+    </row>
+    <row r="15" spans="2:6" s="39" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="37"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-    </row>
-    <row r="16" spans="2:6" s="42" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+    </row>
+    <row r="16" spans="2:6" s="39" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="37"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-    </row>
-    <row r="17" spans="2:6" s="42" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+    </row>
+    <row r="17" spans="2:6" s="39" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="37"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="2:6" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="29"/>
@@ -2492,46 +2491,46 @@
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
     </row>
-    <row r="19" spans="2:6" s="37" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" s="35" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="29"/>
       <c r="C19" s="16"/>
       <c r="D19" s="30"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
     </row>
-    <row r="20" spans="2:6" s="37" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" s="35" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:6" s="37" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="34" t="s">
+    <row r="21" spans="2:6" s="35" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="34"/>
-    </row>
-    <row r="22" spans="2:6" s="37" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+      <c r="C21" s="45"/>
+    </row>
+    <row r="22" spans="2:6" s="35" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="41">
         <f>SUM(Tableau_Articles2[Montant])</f>
         <v>19800</v>
       </c>
     </row>
-    <row r="23" spans="2:6" s="37" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+    <row r="23" spans="2:6" s="35" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="42">
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="2:6" s="37" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" s="35" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="12" t="s">
         <v>27</v>
       </c>
@@ -2539,24 +2538,24 @@
       <c r="D24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="46">
+      <c r="F24" s="43">
         <f>F22*Taux_TVA</f>
         <v>3960</v>
       </c>
     </row>
-    <row r="25" spans="2:6" s="37" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="34" t="s">
+    <row r="25" spans="2:6" s="35" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="46"/>
-    </row>
-    <row r="26" spans="2:6" s="37" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" spans="2:6" s="35" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="11" t="s">
         <v>10</v>
       </c>
@@ -2565,7 +2564,7 @@
         <v>23760</v>
       </c>
     </row>
-    <row r="27" spans="2:6" s="37" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="2:6" s="35" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B11:F11"/>
@@ -2620,6 +2619,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cf6cf056b5324d160236e2ac13572175">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="308e4927137fd5e63b6be1bd7725299e" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2839,15 +2847,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE21DFDB-9131-4336-BB9A-5B7FFEA41F63}">
   <ds:schemaRefs>
@@ -2857,6 +2856,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49B3B314-6F37-4B5B-91DC-91848E4E7F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B971255C-6284-478A-B532-189CCBCEB2CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2874,22 +2891,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49B3B314-6F37-4B5B-91DC-91848E4E7F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>